--- a/Report of Foresty_20251127/鳥類_excel圖_20251202.xlsx
+++ b/Report of Foresty_20251127/鳥類_excel圖_20251202.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20251127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED3932-5308-4DD2-9B99-591E947E83F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89676D5E-E8B5-4D54-BB80-D19CCFD4E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="不分區" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="臺中" sheetId="10" r:id="rId10"/>
     <sheet name="臺東" sheetId="11" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -480,6 +483,8628 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>不分區!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>不分區!$A$2:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>不分區!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>不分區!$B$2:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>不分區!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D93-4591-AD2E-9B124106BF77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>花蓮!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>花蓮!$G$2:$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>小卷尾</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>綠畫眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>北方中杜鵑</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>大彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>巨嘴鴉</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>臺灣紫嘯鶇</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>花蓮!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA08-4B3D-8FA1-8C2CD194066F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>南投!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>南投!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>南投!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>南投!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>南投!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F97A-4125-9205-BF6B1C704515}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>南投!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>南投!$G$2:$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>巨嘴鴉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>青背山雀</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>黃腹琉璃</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>黑枕藍鶲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>南投!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DC4-488E-88C7-8BC6D8955F6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>屏東!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>屏東!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>屏東!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>屏東!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>屏東!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-280C-4C47-90AD-23C9FD620AD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>屏東!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>屏東!$G$2:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>大彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>白環鸚嘴鵯</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>臺灣竹雞</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>屏東!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EB5-41E9-B14C-B8212851E262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>新竹!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>新竹!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>新竹!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>麻雀</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>巨嘴鴉</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>家八哥</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>新竹!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>新竹!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-24A5-47E7-83A1-FA877EF44B21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>新竹!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>新竹!$G$2:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>小卷尾</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>巨嘴鴉</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>綠畫眉</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>臺灣竹雞</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>臺灣紫嘯鶇</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>新竹!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57E1-49A3-9B96-481B6014201D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>嘉義!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>嘉義!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>嘉義!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>白腰鵲鴝</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>嘉義!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>嘉義!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D714-4254-BF1E-39859731D05B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>嘉義!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>嘉義!$G$2:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>小卷尾</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>白腰鵲鴝</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>臺灣竹雞</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>黑枕藍鶲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>嘉義!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99EC-4D26-B5E5-AC65DAAC56D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>臺中!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>臺中!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>臺中!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>東方毛腳燕</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>臺灣噪眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>黃腹琉璃</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>紅頭山雀</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>臺中!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>臺中!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-445F-4FC8-93C7-37B3B5C1A287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>不分區!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>不分區!$G$2:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>臺灣竹雞</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>不分區!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EB1D-469C-BAA1-EEAE4974AB41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>臺中!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>臺中!$G$2:$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>青背山雀</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>黃腹琉璃</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>巨嘴鴉</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>紅頭山雀</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>臺中!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A4E-47CC-A2B0-41745824A625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>臺東!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>臺東!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>臺東!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>小雨燕</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>赤腹鷹</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>臺東!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>臺東!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB1F-46E7-8788-AF6ABEDADAA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>臺東!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>臺東!$G$2:$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>臺灣竹雞</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>小雨燕</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>黑枕藍鶲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>臺東!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A2C-405F-B170-3B51C17F6501}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>中高海拔!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>中高海拔!$A$2:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>中高海拔!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>東方毛腳燕</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>中高海拔!$B$2:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>中高海拔!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D73-48F5-BF9F-8FAA480A8804}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>中高海拔!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>中高海拔!$H$2:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>棕面鶯</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>臺灣山鷓鴣</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>青背山雀</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>黃腹琉璃</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>中高海拔!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D62C-4BFE-A0A2-1C0345064D3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>低海拔!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>低海拔!$A$2:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>低海拔!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>綠畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>低海拔!$B$2:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>低海拔!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-56EE-4B16-BC45-00120B6CABBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>低海拔!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>低海拔!$H$2:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>臺灣竹雞</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>小卷尾</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>低海拔!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-51BE-4EC9-88EC-6DE6789E3B2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>宜蘭!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>宜蘭!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>宜蘭!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>綠畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>臺灣紫嘯鶇</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>黃胸藪眉</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>宜蘭!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>宜蘭!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-183E-4372-92FB-2A3E06403F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7186021164704063E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.8330491526627426"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>宜蘭!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob_Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>宜蘭!$G$2:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>五色鳥</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>臺灣紫嘯鶇</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>大冠鷲</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>小彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樹鵲</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>臺灣藍鵲</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>白頭翁</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>白鶺鴒</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>藍腹鷴</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>宜蘭!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22D3-4D54-8EBB-9B5BFFD3FD1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9204513888888886E-2"/>
+          <c:y val="5.6091666666666665E-2"/>
+          <c:w val="0.88131879120483292"/>
+          <c:h val="0.60469290123456787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>花蓮!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>花蓮!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>花蓮!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>紅嘴黑鵯</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>頭烏線</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>小雨燕</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>大彎嘴</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>白尾鴝</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>綠畫眉</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>山紅頭</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>花蓮!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>花蓮!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0911-4739-95D2-85004254DFA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930548928"/>
+        <c:axId val="1136887071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930548928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="eaVert"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136887071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136887071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="eaVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>數量  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>隻</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930548928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7786633-C7FA-0523-BAAD-7953A0E665C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351EA70F-8692-08B9-44B2-FC1CE854BA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D2DC96-2C27-1526-6C46-A79FD5A26B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>217425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>97050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C069F3EF-990B-5008-0FBC-ECBCD220D2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>684150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EADC91-D84A-6B2B-2D68-78AD61C18FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>303150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>182775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44C0E05-C52A-1CE0-5FC5-FF7BC86C5D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>693675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D707763-66B4-CF63-1143-5251018A151D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>693675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707FC5D7-0532-5C2C-99BA-F727CAA4CC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953659FC-1B89-DC0A-3774-CCF1C8E9DA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>369825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08136C67-5A64-EA34-4C97-3BBC5DDE0161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40368D6A-14E4-6D73-A1F3-99846EA04BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>322200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>154200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D858EFA1-2BC7-994A-8FE9-991EA89233AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0302327F-E3FD-3554-6FAA-2B41249BA8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151508FE-C96B-3999-B7D8-602BC14F099B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>226950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6097BC3C-2B6D-5495-3B95-E0411A2BD3A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>760350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E52C255-5C79-094A-35A2-3B47AADF0CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E9D13F-A2CC-6CE7-51B0-43C2D5BC1371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8A0F9C-E5F7-4B5F-4A66-7C9DAB278334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>226950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C29470-5AF5-C5A9-E81C-14D0298FC03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3DD3B4-EC2C-3B4E-8361-6BA066E14D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87578B3-4EDE-83AF-5F8A-1099195E77A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>182775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C0E56D-857D-227D-00D9-D86E48A252A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Surveyor"/>
+      <sheetName val="Survey_bird_List"/>
+      <sheetName val="數量圖1"/>
+      <sheetName val="數量圖2"/>
+      <sheetName val="占比圖"/>
+      <sheetName val="工作表4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>白耳畫眉</v>
+          </cell>
+          <cell r="C4">
+            <v>942</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>冠羽畫眉</v>
+          </cell>
+          <cell r="C5">
+            <v>781</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>五色鳥</v>
+          </cell>
+          <cell r="C6">
+            <v>449</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>紅嘴黑鵯</v>
+          </cell>
+          <cell r="C7">
+            <v>413</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>繡眼畫眉</v>
+          </cell>
+          <cell r="C8">
+            <v>393</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>黃胸藪眉</v>
+          </cell>
+          <cell r="C9">
+            <v>372</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>山紅頭</v>
+          </cell>
+          <cell r="C10">
+            <v>261</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>白尾鴝</v>
+          </cell>
+          <cell r="C11">
+            <v>248</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>棕面鶯</v>
+          </cell>
+          <cell r="C12">
+            <v>229</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>頭烏線</v>
+          </cell>
+          <cell r="C13">
+            <v>175</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="50">
+          <cell r="D50" t="str">
+            <v>五色鳥</v>
+          </cell>
+          <cell r="F50">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51" t="str">
+            <v>山紅頭</v>
+          </cell>
+          <cell r="F51">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52" t="str">
+            <v>冠羽畫眉</v>
+          </cell>
+          <cell r="F52">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53" t="str">
+            <v>棕面鶯</v>
+          </cell>
+          <cell r="F53">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54" t="str">
+            <v>白尾鴝</v>
+          </cell>
+          <cell r="F54">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55" t="str">
+            <v>白耳畫眉</v>
+          </cell>
+          <cell r="F55">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56" t="str">
+            <v>黃胸藪眉</v>
+          </cell>
+          <cell r="F56">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57" t="str">
+            <v>繡眼畫眉</v>
+          </cell>
+          <cell r="F57">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58" t="str">
+            <v>臺灣山鷓鴣</v>
+          </cell>
+          <cell r="F58">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59" t="str">
+            <v>黃腹琉璃</v>
+          </cell>
+          <cell r="F59">
+            <v>60</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -762,7 +9387,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,6 +9825,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1207,7 +9833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2051,6 +10679,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2058,7 +10687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2583,6 +11214,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2591,7 +11223,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,6 +11661,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3037,7 +11670,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,6 +12108,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3482,7 +12116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4073,6 +12709,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4080,7 +12717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4781,6 +13420,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4788,7 +13428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5445,6 +14087,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5452,7 +14095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5999,6 +14644,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6006,7 +14652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6729,6 +15377,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6736,7 +15385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7305,5 +15956,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>